--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col3a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col3a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H2">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I2">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J2">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.27644</v>
+        <v>0.110622</v>
       </c>
       <c r="N2">
-        <v>0.8293199999999999</v>
+        <v>0.331866</v>
       </c>
       <c r="O2">
-        <v>0.1940440920813294</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P2">
-        <v>0.2208748168298663</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q2">
-        <v>5.682246453419999</v>
+        <v>2.619748102182</v>
       </c>
       <c r="R2">
-        <v>34.09347872052</v>
+        <v>15.718488613092</v>
       </c>
       <c r="S2">
-        <v>0.003285140704249276</v>
+        <v>0.002051919205961021</v>
       </c>
       <c r="T2">
-        <v>0.002599202289554675</v>
+        <v>0.001715157816279968</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H3">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I3">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J3">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5191680000000001</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N3">
-        <v>1.038336</v>
+        <v>1.223752</v>
       </c>
       <c r="O3">
-        <v>0.3644244074579643</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P3">
-        <v>0.2765425575264748</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q3">
-        <v>10.671540033024</v>
+        <v>14.490435806356</v>
       </c>
       <c r="R3">
-        <v>42.68616013209601</v>
+        <v>57.96174322542401</v>
       </c>
       <c r="S3">
-        <v>0.006169656812124469</v>
+        <v>0.01134964216942928</v>
       </c>
       <c r="T3">
-        <v>0.003254287016503936</v>
+        <v>0.006324624420664498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H4">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I4">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J4">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6290166666666667</v>
+        <v>0.192067</v>
       </c>
       <c r="N4">
-        <v>1.88705</v>
+        <v>0.576201</v>
       </c>
       <c r="O4">
-        <v>0.4415315004607061</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P4">
-        <v>0.5025826256436589</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q4">
-        <v>12.929488219175</v>
+        <v>4.548527044727</v>
       </c>
       <c r="R4">
-        <v>77.57692931504999</v>
+        <v>27.291162268362</v>
       </c>
       <c r="S4">
-        <v>0.007475069654600874</v>
+        <v>0.003562636420705786</v>
       </c>
       <c r="T4">
-        <v>0.005914272754189156</v>
+        <v>0.002977935820175414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1042.616902666667</v>
+        <v>23.681981</v>
       </c>
       <c r="H5">
-        <v>3127.850708</v>
+        <v>47.363962</v>
       </c>
       <c r="I5">
-        <v>0.8587349328240113</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J5">
-        <v>0.8953456273674414</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.27644</v>
+        <v>0.212851</v>
       </c>
       <c r="N5">
-        <v>0.8293199999999999</v>
+        <v>0.638553</v>
       </c>
       <c r="O5">
-        <v>0.1940440920813294</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P5">
-        <v>0.2208748168298663</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q5">
-        <v>288.2210165731733</v>
+        <v>5.040733337831</v>
       </c>
       <c r="R5">
-        <v>2593.98914915856</v>
+        <v>30.244400026986</v>
       </c>
       <c r="S5">
-        <v>0.1666324403783567</v>
+        <v>0.003948157282529781</v>
       </c>
       <c r="T5">
-        <v>0.1977593014442053</v>
+        <v>0.003300184921200191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>3127.850708</v>
       </c>
       <c r="I6">
-        <v>0.8587349328240113</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J6">
-        <v>0.8953456273674414</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5191680000000001</v>
+        <v>0.110622</v>
       </c>
       <c r="N6">
-        <v>1.038336</v>
+        <v>0.331866</v>
       </c>
       <c r="O6">
-        <v>0.3644244074579643</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P6">
-        <v>0.2765425575264748</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q6">
-        <v>541.293332123648</v>
+        <v>115.336367006792</v>
       </c>
       <c r="R6">
-        <v>3247.759992741888</v>
+        <v>1038.027303061128</v>
       </c>
       <c r="S6">
-        <v>0.3129439690578451</v>
+        <v>0.09033727571360377</v>
       </c>
       <c r="T6">
-        <v>0.2476011696623383</v>
+        <v>0.1132666559858956</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>3127.850708</v>
       </c>
       <c r="I7">
-        <v>0.8587349328240113</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J7">
-        <v>0.8953456273674414</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6290166666666667</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N7">
-        <v>1.88705</v>
+        <v>1.223752</v>
       </c>
       <c r="O7">
-        <v>0.4415315004607061</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P7">
-        <v>0.5025826256436589</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q7">
-        <v>655.8234087257111</v>
+        <v>637.9522599360694</v>
       </c>
       <c r="R7">
-        <v>5902.410678531401</v>
+        <v>3827.713559616417</v>
       </c>
       <c r="S7">
-        <v>0.3791585233878094</v>
+        <v>0.499676474069688</v>
       </c>
       <c r="T7">
-        <v>0.4499851562608977</v>
+        <v>0.4176694714012636</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8184900000000001</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H8">
-        <v>2.45547</v>
+        <v>3127.850708</v>
       </c>
       <c r="I8">
-        <v>0.0006741363518751979</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J8">
-        <v>0.0007028770017727877</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,33 +933,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.27644</v>
+        <v>0.192067</v>
       </c>
       <c r="N8">
-        <v>0.8293199999999999</v>
+        <v>0.576201</v>
       </c>
       <c r="O8">
-        <v>0.1940440920813294</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P8">
-        <v>0.2208748168298663</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q8">
-        <v>0.2262633756</v>
+        <v>200.2523006444787</v>
       </c>
       <c r="R8">
-        <v>2.0363703804</v>
+        <v>1802.270705800308</v>
       </c>
       <c r="S8">
-        <v>0.0001308121763386424</v>
+        <v>0.1568477295156907</v>
       </c>
       <c r="T8">
-        <v>0.0001552478290204901</v>
+        <v>0.1966587732570647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8184900000000001</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H9">
-        <v>2.45547</v>
+        <v>3127.850708</v>
       </c>
       <c r="I9">
-        <v>0.0006741363518751979</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J9">
-        <v>0.0007028770017727877</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5191680000000001</v>
+        <v>0.212851</v>
       </c>
       <c r="N9">
-        <v>1.038336</v>
+        <v>0.638553</v>
       </c>
       <c r="O9">
-        <v>0.3644244074579643</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P9">
-        <v>0.2765425575264748</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q9">
-        <v>0.4249338163200001</v>
+        <v>221.9220503495027</v>
       </c>
       <c r="R9">
-        <v>2.54960289792</v>
+        <v>1997.298453145524</v>
       </c>
       <c r="S9">
-        <v>0.0002456717405779927</v>
+        <v>0.1738205734204433</v>
       </c>
       <c r="T9">
-        <v>0.0001943754036967873</v>
+        <v>0.2179396593196097</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8184900000000001</v>
+        <v>0.129476</v>
       </c>
       <c r="H10">
-        <v>2.45547</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I10">
-        <v>0.0006741363518751979</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J10">
-        <v>0.0007028770017727877</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,95 +1057,95 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6290166666666667</v>
+        <v>0.110622</v>
       </c>
       <c r="N10">
-        <v>1.88705</v>
+        <v>0.331866</v>
       </c>
       <c r="O10">
-        <v>0.4415315004607061</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P10">
-        <v>0.5025826256436589</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q10">
-        <v>0.5148438515</v>
+        <v>0.014322894072</v>
       </c>
       <c r="R10">
-        <v>4.6335946635</v>
+        <v>0.128906046648</v>
       </c>
       <c r="S10">
-        <v>0.0002976524349585627</v>
+        <v>1.121841500974978E-05</v>
       </c>
       <c r="T10">
-        <v>0.0003532537690555103</v>
+        <v>1.40658697484386E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>128.382446</v>
+        <v>0.129476</v>
       </c>
       <c r="H11">
-        <v>256.764892</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I11">
-        <v>0.1057401725021131</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J11">
-        <v>0.07349881588839352</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.27644</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N11">
-        <v>0.8293199999999999</v>
+        <v>1.223752</v>
       </c>
       <c r="O11">
-        <v>0.1940440920813294</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P11">
-        <v>0.2208748168298663</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q11">
-        <v>35.49004337224</v>
+        <v>0.07922325697600002</v>
       </c>
       <c r="R11">
-        <v>212.94026023344</v>
+        <v>0.4753395418560001</v>
       </c>
       <c r="S11">
-        <v>0.0205182557696957</v>
+        <v>6.20516615366352E-05</v>
       </c>
       <c r="T11">
-        <v>0.01623403749656098</v>
+        <v>5.186773045865272E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>128.382446</v>
+        <v>0.129476</v>
       </c>
       <c r="H12">
-        <v>256.764892</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I12">
-        <v>0.1057401725021131</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J12">
-        <v>0.07349881588839352</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5191680000000001</v>
+        <v>0.192067</v>
       </c>
       <c r="N12">
-        <v>1.038336</v>
+        <v>0.576201</v>
       </c>
       <c r="O12">
-        <v>0.3644244074579643</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P12">
-        <v>0.2765425575264748</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q12">
-        <v>66.652057724928</v>
+        <v>0.024868066892</v>
       </c>
       <c r="R12">
-        <v>266.608230899712</v>
+        <v>0.223812602028</v>
       </c>
       <c r="S12">
-        <v>0.03853429970858551</v>
+        <v>1.947792767874032E-05</v>
       </c>
       <c r="T12">
-        <v>0.02032555052094384</v>
+        <v>2.442180944995893E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>128.382446</v>
+        <v>0.129476</v>
       </c>
       <c r="H13">
-        <v>256.764892</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I13">
-        <v>0.1057401725021131</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J13">
-        <v>0.07349881588839352</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6290166666666667</v>
+        <v>0.212851</v>
       </c>
       <c r="N13">
-        <v>1.88705</v>
+        <v>0.638553</v>
       </c>
       <c r="O13">
-        <v>0.4415315004607061</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P13">
-        <v>0.5025826256436589</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q13">
-        <v>80.75469824143333</v>
+        <v>0.027559096076</v>
       </c>
       <c r="R13">
-        <v>484.5281894486</v>
+        <v>0.248031864684</v>
       </c>
       <c r="S13">
-        <v>0.04668761702383191</v>
+        <v>2.158567783298306E-05</v>
       </c>
       <c r="T13">
-        <v>0.03693922787088869</v>
+        <v>2.706454811723622E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.443657</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H14">
-        <v>61.330971</v>
+        <v>131.22686</v>
       </c>
       <c r="I14">
-        <v>0.01683809496630118</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J14">
-        <v>0.01755595833477656</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.27644</v>
+        <v>0.110622</v>
       </c>
       <c r="N14">
-        <v>0.8293199999999999</v>
+        <v>0.331866</v>
       </c>
       <c r="O14">
-        <v>0.1940440920813294</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P14">
-        <v>0.2208748168298663</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q14">
-        <v>5.651444541079999</v>
+        <v>7.258288853459999</v>
       </c>
       <c r="R14">
-        <v>50.86300086972</v>
+        <v>43.54973312076</v>
       </c>
       <c r="S14">
-        <v>0.003267332850115116</v>
+        <v>0.005685058914031686</v>
       </c>
       <c r="T14">
-        <v>0.003877669081466536</v>
+        <v>0.004752025910224256</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.443657</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H15">
-        <v>61.330971</v>
+        <v>131.22686</v>
       </c>
       <c r="I15">
-        <v>0.01683809496630118</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J15">
-        <v>0.01755595833477656</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,157 +1367,157 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5191680000000001</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N15">
-        <v>1.038336</v>
+        <v>1.223752</v>
       </c>
       <c r="O15">
-        <v>0.3644244074579643</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P15">
-        <v>0.2765425575264748</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q15">
-        <v>10.613692517376</v>
+        <v>40.14728309468</v>
       </c>
       <c r="R15">
-        <v>63.682155104256</v>
+        <v>160.58913237872</v>
       </c>
       <c r="S15">
-        <v>0.006136212780815239</v>
+        <v>0.03144538254670908</v>
       </c>
       <c r="T15">
-        <v>0.00485496961772734</v>
+        <v>0.01752304005739894</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.443657</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H16">
-        <v>61.330971</v>
+        <v>131.22686</v>
       </c>
       <c r="I16">
-        <v>0.01683809496630118</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J16">
-        <v>0.01755595833477656</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.6290166666666667</v>
+        <v>0.192067</v>
       </c>
       <c r="N16">
-        <v>1.88705</v>
+        <v>0.576201</v>
       </c>
       <c r="O16">
-        <v>0.4415315004607061</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P16">
-        <v>0.5025826256436589</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q16">
-        <v>12.85940098061667</v>
+        <v>12.60217465981</v>
       </c>
       <c r="R16">
-        <v>115.73460882555</v>
+        <v>75.61304795885999</v>
       </c>
       <c r="S16">
-        <v>0.007434549335370823</v>
+        <v>0.009870660541676374</v>
       </c>
       <c r="T16">
-        <v>0.008823319635582678</v>
+        <v>0.008250685763221079</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.314656666666667</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H17">
-        <v>3.94397</v>
+        <v>131.22686</v>
       </c>
       <c r="I17">
-        <v>0.001082796184724401</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J17">
-        <v>0.001128959347368048</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.27644</v>
+        <v>0.212851</v>
       </c>
       <c r="N17">
-        <v>0.8293199999999999</v>
+        <v>0.638553</v>
       </c>
       <c r="O17">
-        <v>0.1940440920813294</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P17">
-        <v>0.2208748168298663</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q17">
-        <v>0.3634236889333333</v>
+        <v>13.96588418893</v>
       </c>
       <c r="R17">
-        <v>3.2708132004</v>
+        <v>83.79530513358</v>
       </c>
       <c r="S17">
-        <v>0.0002101102025739739</v>
+        <v>0.01093878681374915</v>
       </c>
       <c r="T17">
-        <v>0.000249358689058283</v>
+        <v>0.009143510938304707</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.314656666666667</v>
+        <v>0.1603193333333333</v>
       </c>
       <c r="H18">
-        <v>3.94397</v>
+        <v>0.480958</v>
       </c>
       <c r="I18">
-        <v>0.001082796184724401</v>
+        <v>0.0001415698637979334</v>
       </c>
       <c r="J18">
-        <v>0.001128959347368048</v>
+        <v>0.0001453913416417078</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5191680000000001</v>
+        <v>0.110622</v>
       </c>
       <c r="N18">
-        <v>1.038336</v>
+        <v>0.331866</v>
       </c>
       <c r="O18">
-        <v>0.3644244074579643</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P18">
-        <v>0.2765425575264748</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q18">
-        <v>0.6825276723200002</v>
+        <v>0.017734845292</v>
       </c>
       <c r="R18">
-        <v>4.095166033920001</v>
+        <v>0.159613607628</v>
       </c>
       <c r="S18">
-        <v>0.0003945973580159343</v>
+        <v>1.389082776282667E-05</v>
       </c>
       <c r="T18">
-        <v>0.0003122053052645799</v>
+        <v>1.741659350631142E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1603193333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.480958</v>
+      </c>
+      <c r="I19">
+        <v>0.0001415698637979334</v>
+      </c>
+      <c r="J19">
+        <v>0.0001453913416417078</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6118760000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.223752</v>
+      </c>
+      <c r="O19">
+        <v>0.5427242473053424</v>
+      </c>
+      <c r="P19">
+        <v>0.4417284032613671</v>
+      </c>
+      <c r="Q19">
+        <v>0.09809555240266668</v>
+      </c>
+      <c r="R19">
+        <v>0.588573314416</v>
+      </c>
+      <c r="S19">
+        <v>7.683339777085327E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.422348519141948E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1603193333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.480958</v>
+      </c>
+      <c r="I20">
+        <v>0.0001415698637979334</v>
+      </c>
+      <c r="J20">
+        <v>0.0001453913416417078</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.192067</v>
+      </c>
+      <c r="N20">
+        <v>0.576201</v>
+      </c>
+      <c r="O20">
+        <v>0.1703603638763331</v>
+      </c>
+      <c r="P20">
+        <v>0.2079868696333922</v>
+      </c>
+      <c r="Q20">
+        <v>0.03079205339533333</v>
+      </c>
+      <c r="R20">
+        <v>0.277128480558</v>
+      </c>
+      <c r="S20">
+        <v>2.411789351053886E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.023949001985785E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1603193333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.480958</v>
+      </c>
+      <c r="I21">
+        <v>0.0001415698637979334</v>
+      </c>
+      <c r="J21">
+        <v>0.0001453913416417078</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.212851</v>
+      </c>
+      <c r="N21">
+        <v>0.638553</v>
+      </c>
+      <c r="O21">
+        <v>0.18879544019244</v>
+      </c>
+      <c r="P21">
+        <v>0.2304935943620568</v>
+      </c>
+      <c r="Q21">
+        <v>0.03412413041933333</v>
+      </c>
+      <c r="R21">
+        <v>0.307117173774</v>
+      </c>
+      <c r="S21">
+        <v>2.672774475371462E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.351177292411901E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.314656666666667</v>
-      </c>
-      <c r="H19">
-        <v>3.94397</v>
-      </c>
-      <c r="I19">
-        <v>0.001082796184724401</v>
-      </c>
-      <c r="J19">
-        <v>0.001128959347368048</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.6290166666666667</v>
-      </c>
-      <c r="N19">
-        <v>1.88705</v>
-      </c>
-      <c r="O19">
-        <v>0.4415315004607061</v>
-      </c>
-      <c r="P19">
-        <v>0.5025826256436589</v>
-      </c>
-      <c r="Q19">
-        <v>0.8269409542777779</v>
-      </c>
-      <c r="R19">
-        <v>7.442468588500001</v>
-      </c>
-      <c r="S19">
-        <v>0.0004780886241344927</v>
-      </c>
-      <c r="T19">
-        <v>0.0005673953530451853</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2375856666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.712757</v>
+      </c>
+      <c r="I22">
+        <v>0.0002097998399257807</v>
+      </c>
+      <c r="J22">
+        <v>0.0002154630892812235</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.110622</v>
+      </c>
+      <c r="N22">
+        <v>0.331866</v>
+      </c>
+      <c r="O22">
+        <v>0.0981199486258843</v>
+      </c>
+      <c r="P22">
+        <v>0.1197911327431839</v>
+      </c>
+      <c r="Q22">
+        <v>0.026282201618</v>
+      </c>
+      <c r="R22">
+        <v>0.236539814562</v>
+      </c>
+      <c r="S22">
+        <v>2.058554951523635E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.581056752934354E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2375856666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.712757</v>
+      </c>
+      <c r="I23">
+        <v>0.0002097998399257807</v>
+      </c>
+      <c r="J23">
+        <v>0.0002154630892812235</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6118760000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.223752</v>
+      </c>
+      <c r="O23">
+        <v>0.5427242473053424</v>
+      </c>
+      <c r="P23">
+        <v>0.4417284032613671</v>
+      </c>
+      <c r="Q23">
+        <v>0.1453729673773334</v>
+      </c>
+      <c r="R23">
+        <v>0.8722378042640001</v>
+      </c>
+      <c r="S23">
+        <v>0.0001138634602085007</v>
+      </c>
+      <c r="T23">
+        <v>9.517616638995625E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2375856666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.712757</v>
+      </c>
+      <c r="I24">
+        <v>0.0002097998399257807</v>
+      </c>
+      <c r="J24">
+        <v>0.0002154630892812235</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.192067</v>
+      </c>
+      <c r="N24">
+        <v>0.576201</v>
+      </c>
+      <c r="O24">
+        <v>0.1703603638763331</v>
+      </c>
+      <c r="P24">
+        <v>0.2079868696333922</v>
+      </c>
+      <c r="Q24">
+        <v>0.04563236623966666</v>
+      </c>
+      <c r="R24">
+        <v>0.410691296157</v>
+      </c>
+      <c r="S24">
+        <v>3.574157707095243E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.481349346114177E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2375856666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.712757</v>
+      </c>
+      <c r="I25">
+        <v>0.0002097998399257807</v>
+      </c>
+      <c r="J25">
+        <v>0.0002154630892812235</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.212851</v>
+      </c>
+      <c r="N25">
+        <v>0.638553</v>
+      </c>
+      <c r="O25">
+        <v>0.18879544019244</v>
+      </c>
+      <c r="P25">
+        <v>0.2304935943620568</v>
+      </c>
+      <c r="Q25">
+        <v>0.05057034673566667</v>
+      </c>
+      <c r="R25">
+        <v>0.455133120621</v>
+      </c>
+      <c r="S25">
+        <v>3.960925313109122E-05</v>
+      </c>
+      <c r="T25">
+        <v>4.966286190078196E-05</v>
       </c>
     </row>
   </sheetData>
